--- a/outputs-HGR-r202/g__Mesosutterella.xlsx
+++ b/outputs-HGR-r202/g__Mesosutterella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -754,6 +824,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -775,6 +850,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -796,6 +876,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -817,6 +902,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -838,6 +928,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -859,6 +954,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -880,6 +980,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -901,6 +1006,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -922,6 +1032,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -943,6 +1058,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -964,6 +1084,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -985,6 +1110,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1006,6 +1136,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1027,6 +1162,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1048,6 +1188,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1069,6 +1214,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1090,6 +1240,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1111,6 +1266,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1132,6 +1292,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1153,6 +1318,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1174,6 +1344,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1195,6 +1370,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1216,6 +1396,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1237,6 +1422,11 @@
           <t>s__Mesosutterella multiformis</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1254,6 +1444,11 @@
         <v>0.9140317959549839</v>
       </c>
       <c r="E39" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>s__Mesosutterella multiformis</t>
         </is>

--- a/outputs-HGR-r202/g__Mesosutterella.xlsx
+++ b/outputs-HGR-r202/g__Mesosutterella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,17 +495,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13637.fa</t>
+          <t>even_MAG-GUT13170.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09654380483180958</v>
+        <v>0.07008239264090299</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9034561951681904</v>
+        <v>0.929917607359097</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9034561951681904</v>
+        <v>0.929917607359097</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -521,17 +521,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14050.fa</t>
+          <t>even_MAG-GUT13637.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0852323922004653</v>
+        <v>0.09654380483180958</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9147676077995347</v>
+        <v>0.9034561951681904</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9147676077995347</v>
+        <v>0.9034561951681904</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -547,17 +547,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14125.fa</t>
+          <t>even_MAG-GUT13881.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09654380483180958</v>
+        <v>0.08569096455915248</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9034561951681904</v>
+        <v>0.9143090354408476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9034561951681904</v>
+        <v>0.9143090354408476</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,17 +573,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14250.fa</t>
+          <t>even_MAG-GUT14050.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08281310765355754</v>
+        <v>0.0852323922004653</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9171868923464425</v>
+        <v>0.9147676077995347</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9171868923464425</v>
+        <v>0.9147676077995347</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -599,17 +599,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1763.fa</t>
+          <t>even_MAG-GUT14125.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09127158728749285</v>
+        <v>0.09654380483180958</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9087284127125071</v>
+        <v>0.9034561951681904</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9087284127125071</v>
+        <v>0.9034561951681904</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -625,17 +625,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18361.fa</t>
+          <t>even_MAG-GUT14250.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09643084187387008</v>
+        <v>0.08281310765355754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.90356915812613</v>
+        <v>0.9171868923464425</v>
       </c>
       <c r="D8" t="n">
-        <v>0.90356915812613</v>
+        <v>0.9171868923464425</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -651,17 +651,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18974.fa</t>
+          <t>even_MAG-GUT14532.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09060654459432038</v>
+        <v>0.09047915238288297</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9093934554056796</v>
+        <v>0.909520847617117</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9093934554056796</v>
+        <v>0.909520847617117</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -677,17 +677,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25263.fa</t>
+          <t>even_MAG-GUT15246.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08578384924298854</v>
+        <v>0.07679057828373448</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9142161507570115</v>
+        <v>0.9232094217162655</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9142161507570115</v>
+        <v>0.9232094217162655</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -703,17 +703,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31546.fa</t>
+          <t>even_MAG-GUT15625.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08938773303778114</v>
+        <v>0.07010086445992836</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9106122669622189</v>
+        <v>0.9298991355400716</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9106122669622189</v>
+        <v>0.9298991355400716</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -729,17 +729,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32469.fa</t>
+          <t>even_MAG-GUT16156.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1007497186558408</v>
+        <v>0.08991688583661561</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8992502813441592</v>
+        <v>0.9100831141633844</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8992502813441592</v>
+        <v>0.9100831141633844</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -755,17 +755,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38999.fa</t>
+          <t>even_MAG-GUT17271.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07270007996396777</v>
+        <v>0.08706456012872743</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9272999200360322</v>
+        <v>0.9129354398712726</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9272999200360322</v>
+        <v>0.9129354398712726</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -781,17 +781,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62370.fa</t>
+          <t>even_MAG-GUT1763.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0831786288291565</v>
+        <v>0.09127158728749285</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9168213711708435</v>
+        <v>0.9087284127125071</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9168213711708435</v>
+        <v>0.9087284127125071</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -807,24 +807,700 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT18195.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.08710311992619046</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9128968800738095</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9128968800738095</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT18210.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.09684126366630895</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.903158736333691</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.903158736333691</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT18312.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.09380771437588541</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9061922856241146</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9061922856241146</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT18361.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.09643084187387008</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.90356915812613</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.90356915812613</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT18974.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.09060654459432038</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9093934554056796</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9093934554056796</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT19408.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.08742030830313074</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9125796916968693</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9125796916968693</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT19592.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.08126918245907178</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9187308175409282</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9187308175409282</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT25075.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.08702426797467944</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9129757320253206</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9129757320253206</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT25223.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.08070404856522073</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9192959514347793</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9192959514347793</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT25263.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.08578384924298854</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9142161507570115</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9142161507570115</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT31546.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.08938773303778114</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9106122669622189</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9106122669622189</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT31872.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.08726557739259133</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9127344226074087</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9127344226074087</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT32469.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1007497186558408</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8992502813441592</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8992502813441592</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT36148.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.09108613700964441</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9089138629903556</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9089138629903556</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT38016.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.09448973555507878</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9055102644449212</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9055102644449212</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT38999.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.07270007996396777</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9272999200360322</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9272999200360322</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT39245.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.114458990187605</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.885541009812395</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.885541009812395</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43254.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1149762550571353</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8850237449428647</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8850237449428647</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57726.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.09546136081402445</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9045386391859755</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9045386391859755</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58214.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1433289937227838</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8566710062772162</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8566710062772162</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61409.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1417790569208766</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.8582209430791234</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8582209430791234</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61735.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.08677603604858554</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9132239639514145</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9132239639514145</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62370.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0831786288291565</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9168213711708435</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9168213711708435</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81029.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.08732714420827747</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9126728557917226</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9126728557917226</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT81145.fa</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B39" t="n">
         <v>0.08087443653793436</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C39" t="n">
         <v>0.9191255634620658</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D39" t="n">
         <v>0.9191255634620658</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__Mesosutterella multiformis</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81432.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1175323812339075</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8824676187660925</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8824676187660925</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81523.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.08596820404501615</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9140317959549839</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9140317959549839</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>s__Mesosutterella multiformis</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>s__Mesosutterella multiformis</t>
         </is>
